--- a/Surf/1.xlsx
+++ b/Surf/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Серфинг на Мальдивах</t>
   </si>
@@ -32,34 +32,6 @@
     <t>Стоимость лагеря 1450$</t>
   </si>
   <si>
-    <t>Его попросту нет. Только гайдинг для опытных ребят от прокаченных локалов. Каждый день у нас предусмотрено 2-3 выезда на лодке на самые подходящие споты в округе.
-Впрочем, тим-лидом поездки будет Серафим Романов – он непременно будет давать дельные советы на лайнапе, а также проведёт несколько теоретических занятий на суше. На него все надежды.</t>
-  </si>
-  <si>
-    <t>В комфортных номерах с кондиционером и отдельным выходом на пляж. Чиллить будем на одной из наших вилл возле бассейна с морской водой. Восстанавливаться после сёрфинга – с помощью йоги (точнее, специальной программы для укрепления силы, гибкости и подвижности суставов, необходимых каждому сёрферу).</t>
-  </si>
-  <si>
-    <t>Сёрф-кемп находится на северном атолле, небольшом островке. Почти необитаемом в контексте туристов – там нет ни лакшери-отелей, ни шумных компаний из географически близких нам стран. Сами же местные жители острова крайне приветливы, улыбчивы и гостеприимны.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Самый разгар сезона начинается тут с конца апреля, когда приходят настоящие свеллы. Мы же едем в период лёгких «безопасных» волн, идеально подходящих для тех, кто только делает первые шаги на взрослых волнах, и опытных ребят, которые хотят в спокойных условиях отработать технику.
-Температура воздуха и воды в среднем 28-29 градусов. Меж тем февраль и март являются самыми сухими месяцами в году.  </t>
-  </si>
-  <si>
-    <t>На острове их практически нет. Мы будем сёрфить, йожить и чиллить, а по вечерам играть в крокодила. Алкоголь на острове запрещён (!), потому будем стараться жить в стиле ЗОЖ. Ну а если совсем соскучимся по весёлым градусам, у нас всегда есть опция смотаться на соседний остров за выпивкой.
-По желанию группы, можем устроить день дайвинга/снорклинга или поездить по соседним островам.</t>
-  </si>
-  <si>
-    <t>Наш тур продлится 10 дней. Можно приехать и на меньший срок, вот только цену тура мы, к сожалению, изменить не можем.</t>
-  </si>
-  <si>
-    <t>Для украинцев виза ставится по прилёту и действует 30 дней (при наличии обратного билета).
-Бронировать перелёт необходимо самостоятельно. Если возникнут трудности, мы с радостью проконсультируем тебя по всем вопросам.
-Искать перелёт надо в город Мале (Мальдивы). Хороший агрегатор по билетов — kiwi.com. Необходимо обязательно обращать внимание на города-стыковки: возможно, в каком-то из них понадобится наличие визы соответствующей страны, особенно, если прилёт и вылет осуществляются разными авиакомпаниями или лоукостами. На вопрос, нужна ли виза, точный ответ всегда может дать представитель авивкомпании.
-При покупке рейсов необходимо учитывать график нашего трансфера. Лодка отправляется из аэропорта 26-го утром в 08:00 и вечером после 15:00 (точное время будет известно перед поездкой, мы его скорректируем по последнему перелёту). 
-Самостоятельно добраться до острова можно двумя способами: приватная лодка от аэропорта за 120$ или на общественной лодке за пару баксов, которая отправляется из города Мале каждый день в 15:00 (чтобы точно на неё успеть, надо прилететь до 12:00). Обратный трансфер утром 8-го марта так, чтобы в 09:00 быть уже в аэропорту.</t>
-  </si>
-  <si>
     <t>Серф-кемп в Португалии на майские</t>
   </si>
   <si>
@@ -76,62 +48,12 @@
     <t>Стоимость лагеря от 790€</t>
   </si>
   <si>
-    <t>Включено:
-    2 недели проживания в лагере
-    аренда досок и гидрокостюмов
-    20 сёрф-уроков + видеоанализ
-    2 экскурсии: на фабрику досок и по спотам вокруг
-Оплачивается дополнительно:
-    трансфер из аэропорта Лиссабона в лагерь (25€ на нашем автобусе в 23:30 29-го апреля) 
-    перелёт, от 350€
-    питание, от 15€/день*</t>
-  </si>
-  <si>
-    <t>Учить сёрфингу тебя будут инструкторы одной из лучших школ Португалии. На время обучения тебе предоставят доски и гидрокостюмы Rip Curl, в наличии все размеры. Раз в неделю уроки сопровождаются видеосъёмкой, которая даёт возможность детально проанализировать ошибки. Отличный способ посмотреть на себя со стороны и усовершенствовать навыки катания. Всего у нас будет 10 дней уроков по две сессии в день. Каждая сессия длится 1.5-2 часа.</t>
-  </si>
-  <si>
-    <t>Жить мы будем в уютном лагере, который полностью обновили в 2013 году с учётом пожеланий гостивших там сёрферов. Теперь в нашем распоряжении всё необходимое для максимально комфортного отдыха. 
-Общее размещение – 13 комнат, 9 из которых с туалетом и душем. Каждая комната вмещает 4 человека (2 двухэтажные кровати). Для семей и тех, кто хочет остаться наедине, можем рассмотреть другие варианты размещения в индивидуальном порядке. 
-Помимо прочего, в лагере есть WiFi, большая терраса, бар, ресторан, BBQ-зона, кухня, общая комната с кабельным ТВ и DVD.</t>
-  </si>
-  <si>
-    <t>В красивой маленькой деревушке Балеал возле Пениш. В прошлом рыбацкий рай, а сейчас — сёрферский. Спотов много, подойдут как для начинающих, так и для продвинутых сёрферов.</t>
-  </si>
-  <si>
-    <t>Сезон для новичков тут длится с весны по осень, а опытные сёрферы предпочтут любые месяцы, кроме летних, хотя и летом тут есть на чём покататься. 
-В среднем температура воздуха в Пениши около 22-25 градусов, воды – 15-19 градусов. В гидрокостюмах сёрфить комфортно, а вот без солнцезащитного крема можно сгореть в считанные минуты. В этом регионе довольно часто идут дожди – могут быть с регулярностью раз в несколько дней. Но у сёрфинга под дождем тоже есть ряд приятных плюсов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В перерывах между покорением волн тебя ждут танцы в барах и на концертах молодых португальских групп, встречи закатов и просмотры сёрф-фильмов, посещение фабрики по производству досок и поездки в близлежащий Лиссабон или Порту. В нашем сёрф-кемпе есть большая BBQ-зона. Дважды в неделю мы устраиваем там барбекю-пати и веселимся, покуда колени держат. </t>
-  </si>
-  <si>
-    <t>Наш тур продлится 2 недели. Это оптимальный период. Но если тебе этого времени мало или по каким-то причинам нужно уехать раньше, просто укажи это в комментариях, заполняя заявку на поездку.</t>
-  </si>
-  <si>
-    <t>Бронировать перелёт и получать визу (если у тебя паспорт старого образца) необходимо самостоятельно. Если возникнут трудности, мы с радостью проконсультируем тебя по всем вопросам.
-В Лиссабон можно долететь МАУ или KLM. Выбирать лучше по соотношению удобство пересадки/цена. Средняя стоимость перелета €350-€450. Удобнее всего подбирать на сайтах-агрегаторах, к примеру, на momondo.ua. Можно пробовать лоукостами через Варшаву, откуда летают в ryanAir и WizzAir. Хороший агрегатор по лоукостам — kiwi.com.
-При покупке рейсов необходимо учитывать график нашего автобуса. Автобус отправляется из аэропорта в лагерь 29-го апреля в 23:30. Если даты/время перелёта не совпадают с расписанием нашего автобуса, мы расскажем, как самостоятельно добраться до лагеря или организуем другой трансфер.</t>
-  </si>
-  <si>
     <t>http://www.surfinua.com/surftrips/maldives-march18</t>
   </si>
   <si>
     <t>http://www.surfinua.com/surftrips/portugal-may18</t>
   </si>
   <si>
-    <t>Включено:
-10 дней проживания в комфортных номерах с кондиционером и отельным выходом на пляж;
-завтрак, обед и ужин;
-минеральная вода, чай и кофе;
-2-3 выезда на сёрф-споты в день;
-сёрф-гайдинг с опытным гидом;
-ежедневная йога с сертифицированным инструктором.
-Оплачивается дополнительно:
-    традиционный балийский или тайский массажи;
-    аренда серфбордов на все дни (200$);
-    перелёт от 800$.</t>
-  </si>
-  <si>
     <t>PT1245</t>
   </si>
   <si>
@@ -139,6 +61,9 @@
   </si>
   <si>
     <t>1VU3eJFVrqo8njDZsf2BITM3HoFMFYGyQXm0Dmq7_usg</t>
+  </si>
+  <si>
+    <t>Серф-кемп в Португалии</t>
   </si>
 </sst>
 </file>
@@ -510,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
@@ -534,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="345" x14ac:dyDescent="0.25">
@@ -542,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -550,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
@@ -558,79 +483,50 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,18 +539,18 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
